--- a/etat_securite.xlsx
+++ b/etat_securite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhchr\modeleprediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDC79BD-66CE-4D12-BA59-D5654C74941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D1B2C-5EAC-47D7-9C6A-6BB9DFE3C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28796BBD-C246-41A7-A725-DF186FD95628}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="571">
   <si>
     <t>DATE</t>
   </si>
@@ -1615,6 +1615,129 @@
   </si>
   <si>
     <t>208900.03</t>
+  </si>
+  <si>
+    <t>55.79</t>
+  </si>
+  <si>
+    <t>46.19</t>
+  </si>
+  <si>
+    <t>55.81</t>
+  </si>
+  <si>
+    <t>46.21</t>
+  </si>
+  <si>
+    <t>66.91</t>
+  </si>
+  <si>
+    <t>58.61</t>
+  </si>
+  <si>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>43.61</t>
+  </si>
+  <si>
+    <t>63.31</t>
+  </si>
+  <si>
+    <t>54.51</t>
+  </si>
+  <si>
+    <t>48.11</t>
+  </si>
+  <si>
+    <t>52.40</t>
+  </si>
+  <si>
+    <t>49.81</t>
+  </si>
+  <si>
+    <t>70.11</t>
+  </si>
+  <si>
+    <t>80.31</t>
+  </si>
+  <si>
+    <t>50.11</t>
+  </si>
+  <si>
+    <t>51.51</t>
+  </si>
+  <si>
+    <t>40.31</t>
+  </si>
+  <si>
+    <t>59.61</t>
+  </si>
+  <si>
+    <t>62.81</t>
+  </si>
+  <si>
+    <t>55.82</t>
+  </si>
+  <si>
+    <t>46.22</t>
+  </si>
+  <si>
+    <t>66.92</t>
+  </si>
+  <si>
+    <t>46.72</t>
+  </si>
+  <si>
+    <t>58.62</t>
+  </si>
+  <si>
+    <t>38.32</t>
+  </si>
+  <si>
+    <t>43.62</t>
+  </si>
+  <si>
+    <t>54.52</t>
+  </si>
+  <si>
+    <t>48.12</t>
+  </si>
+  <si>
+    <t>52.60</t>
+  </si>
+  <si>
+    <t>52.80</t>
+  </si>
+  <si>
+    <t>64.02</t>
+  </si>
+  <si>
+    <t>49.82</t>
+  </si>
+  <si>
+    <t>70.12</t>
+  </si>
+  <si>
+    <t>51.62</t>
+  </si>
+  <si>
+    <t>80.32</t>
+  </si>
+  <si>
+    <t>50.12</t>
+  </si>
+  <si>
+    <t>51.52</t>
+  </si>
+  <si>
+    <t>40.32</t>
+  </si>
+  <si>
+    <t>59.62</t>
+  </si>
+  <si>
+    <t>62.82</t>
   </si>
 </sst>
 </file>
@@ -2054,9 +2177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0297E95-6C23-4492-B37F-8C13758A1F03}">
   <dimension ref="A1:V309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J22:K92"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22:I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,20 +2285,48 @@
       <c r="H2" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2202,20 +2353,48 @@
       <c r="H3" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2242,20 +2421,48 @@
       <c r="H4" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2282,20 +2489,48 @@
       <c r="H5" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K5">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2322,20 +2557,48 @@
       <c r="H6" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K6">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2362,20 +2625,48 @@
       <c r="H7" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K7">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" t="s">
+        <v>148</v>
+      </c>
+      <c r="V7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2402,20 +2693,48 @@
       <c r="H8" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K8">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" t="s">
+        <v>158</v>
+      </c>
+      <c r="T8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2442,20 +2761,48 @@
       <c r="H9" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K9">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" t="s">
+        <v>167</v>
+      </c>
+      <c r="V9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2482,20 +2829,48 @@
       <c r="H10" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K10">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" t="s">
+        <v>176</v>
+      </c>
+      <c r="T10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U10" t="s">
+        <v>178</v>
+      </c>
+      <c r="V10" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2522,20 +2897,48 @@
       <c r="H11" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K11">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" t="s">
+        <v>188</v>
+      </c>
+      <c r="U11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2562,20 +2965,48 @@
       <c r="H12" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K12">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L12" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O12" t="s">
+        <v>196</v>
+      </c>
+      <c r="P12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>198</v>
+      </c>
+      <c r="R12" t="s">
+        <v>199</v>
+      </c>
+      <c r="S12" t="s">
+        <v>200</v>
+      </c>
+      <c r="T12" t="s">
+        <v>201</v>
+      </c>
+      <c r="U12" t="s">
+        <v>202</v>
+      </c>
+      <c r="V12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2602,20 +3033,48 @@
       <c r="H13" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K13">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" t="s">
+        <v>207</v>
+      </c>
+      <c r="O13" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>210</v>
+      </c>
+      <c r="R13" t="s">
+        <v>211</v>
+      </c>
+      <c r="S13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T13" t="s">
+        <v>212</v>
+      </c>
+      <c r="U13" t="s">
+        <v>213</v>
+      </c>
+      <c r="V13" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2642,20 +3101,48 @@
       <c r="H14" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K14">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L14" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>219</v>
+      </c>
+      <c r="R14" t="s">
+        <v>220</v>
+      </c>
+      <c r="S14" t="s">
+        <v>221</v>
+      </c>
+      <c r="T14" t="s">
+        <v>222</v>
+      </c>
+      <c r="U14" t="s">
+        <v>223</v>
+      </c>
+      <c r="V14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2682,20 +3169,48 @@
       <c r="H15" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K15">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>231</v>
+      </c>
+      <c r="R15" t="s">
+        <v>232</v>
+      </c>
+      <c r="S15" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" t="s">
+        <v>234</v>
+      </c>
+      <c r="U15" t="s">
+        <v>235</v>
+      </c>
+      <c r="V15" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2722,20 +3237,48 @@
       <c r="H16" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K16">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L16" t="s">
+        <v>237</v>
+      </c>
+      <c r="M16" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" t="s">
+        <v>239</v>
+      </c>
+      <c r="O16" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>242</v>
+      </c>
+      <c r="R16" t="s">
+        <v>243</v>
+      </c>
+      <c r="S16" t="s">
+        <v>244</v>
+      </c>
+      <c r="T16" t="s">
+        <v>245</v>
+      </c>
+      <c r="U16" t="s">
+        <v>246</v>
+      </c>
+      <c r="V16" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="17" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -2762,20 +3305,48 @@
       <c r="H17" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K17">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>248</v>
+      </c>
+      <c r="N17" t="s">
+        <v>249</v>
+      </c>
+      <c r="O17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" t="s">
+        <v>252</v>
+      </c>
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
+      <c r="T17" t="s">
+        <v>254</v>
+      </c>
+      <c r="U17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="18" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -2802,20 +3373,48 @@
       <c r="H18" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K18">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L18" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" t="s">
+        <v>217</v>
+      </c>
+      <c r="O18" t="s">
+        <v>218</v>
+      </c>
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>219</v>
+      </c>
+      <c r="R18" t="s">
+        <v>220</v>
+      </c>
+      <c r="S18" t="s">
+        <v>221</v>
+      </c>
+      <c r="T18" t="s">
+        <v>222</v>
+      </c>
+      <c r="U18" t="s">
+        <v>223</v>
+      </c>
+      <c r="V18" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2842,20 +3441,48 @@
       <c r="H19" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K19">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L19" t="s">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19" t="s">
+        <v>191</v>
+      </c>
+      <c r="P19" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>231</v>
+      </c>
+      <c r="R19" t="s">
+        <v>232</v>
+      </c>
+      <c r="S19" t="s">
+        <v>233</v>
+      </c>
+      <c r="T19" t="s">
+        <v>234</v>
+      </c>
+      <c r="U19" t="s">
+        <v>235</v>
+      </c>
+      <c r="V19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2882,20 +3509,48 @@
       <c r="H20" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K20">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L20" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" t="s">
+        <v>239</v>
+      </c>
+      <c r="O20" t="s">
+        <v>240</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>242</v>
+      </c>
+      <c r="R20" t="s">
+        <v>243</v>
+      </c>
+      <c r="S20" t="s">
+        <v>244</v>
+      </c>
+      <c r="T20" t="s">
+        <v>245</v>
+      </c>
+      <c r="U20" t="s">
+        <v>246</v>
+      </c>
+      <c r="V20" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2922,20 +3577,48 @@
       <c r="H21" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K21">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>248</v>
+      </c>
+      <c r="N21" t="s">
+        <v>249</v>
+      </c>
+      <c r="O21" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>179</v>
+      </c>
+      <c r="R21" t="s">
+        <v>252</v>
+      </c>
+      <c r="S21" t="s">
+        <v>253</v>
+      </c>
+      <c r="T21" t="s">
+        <v>254</v>
+      </c>
+      <c r="U21" t="s">
+        <v>255</v>
+      </c>
+      <c r="V21" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="22" spans="1:22" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -2962,7 +3645,9 @@
       <c r="H22" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I22"/>
+      <c r="I22" t="s">
+        <v>530</v>
+      </c>
       <c r="J22">
         <v>32.799999999999997</v>
       </c>
@@ -3028,7 +3713,9 @@
       <c r="H23" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" t="s">
+        <v>531</v>
+      </c>
       <c r="J23">
         <v>32.799999999999997</v>
       </c>
@@ -9350,6 +10037,9 @@
       <c r="H116" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
       <c r="J116">
         <v>32.799999999999997</v>
       </c>
@@ -9415,6 +10105,9 @@
       <c r="H117" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I117" t="s">
+        <v>55</v>
+      </c>
       <c r="J117">
         <v>32.799999999999997</v>
       </c>
@@ -9480,6 +10173,9 @@
       <c r="H118" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I118" t="s">
+        <v>532</v>
+      </c>
       <c r="J118">
         <v>32.799999999999997</v>
       </c>
@@ -9545,6 +10241,9 @@
       <c r="H119" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I119" t="s">
+        <v>533</v>
+      </c>
       <c r="J119">
         <v>32.799999999999997</v>
       </c>
@@ -9610,6 +10309,9 @@
       <c r="H120" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I120" t="s">
+        <v>534</v>
+      </c>
       <c r="J120">
         <v>32.799999999999997</v>
       </c>
@@ -9675,6 +10377,9 @@
       <c r="H121" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I121" t="s">
+        <v>404</v>
+      </c>
       <c r="J121">
         <v>32.799999999999997</v>
       </c>
@@ -9740,6 +10445,9 @@
       <c r="H122" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I122" t="s">
+        <v>535</v>
+      </c>
       <c r="J122">
         <v>32.799999999999997</v>
       </c>
@@ -9805,6 +10513,9 @@
       <c r="H123" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I123" t="s">
+        <v>536</v>
+      </c>
       <c r="J123">
         <v>32.799999999999997</v>
       </c>
@@ -9870,6 +10581,9 @@
       <c r="H124" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I124" t="s">
+        <v>537</v>
+      </c>
       <c r="J124">
         <v>32.799999999999997</v>
       </c>
@@ -9935,6 +10649,9 @@
       <c r="H125" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I125" t="s">
+        <v>538</v>
+      </c>
       <c r="J125">
         <v>32.799999999999997</v>
       </c>
@@ -10000,6 +10717,9 @@
       <c r="H126" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I126" t="s">
+        <v>539</v>
+      </c>
       <c r="J126">
         <v>32.799999999999997</v>
       </c>
@@ -10065,7 +10785,9 @@
       <c r="H127" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I127" s="1"/>
+      <c r="I127" t="s">
+        <v>540</v>
+      </c>
       <c r="J127">
         <v>32.799999999999997</v>
       </c>
@@ -10131,6 +10853,9 @@
       <c r="H128" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I128" t="s">
+        <v>25</v>
+      </c>
       <c r="J128">
         <v>32.799999999999997</v>
       </c>
@@ -10196,6 +10921,9 @@
       <c r="H129" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I129" t="s">
+        <v>541</v>
+      </c>
       <c r="J129">
         <v>32.799999999999997</v>
       </c>
@@ -10261,7 +10989,9 @@
       <c r="H130" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I130" s="1"/>
+      <c r="I130" t="s">
+        <v>418</v>
+      </c>
       <c r="J130">
         <v>32.799999999999997</v>
       </c>
@@ -10327,6 +11057,9 @@
       <c r="H131" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I131" t="s">
+        <v>535</v>
+      </c>
       <c r="J131">
         <v>32.799999999999997</v>
       </c>
@@ -10392,6 +11125,9 @@
       <c r="H132" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I132" t="s">
+        <v>542</v>
+      </c>
       <c r="J132">
         <v>32.799999999999997</v>
       </c>
@@ -10457,6 +11193,9 @@
       <c r="H133" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="I133" t="s">
+        <v>543</v>
+      </c>
       <c r="J133">
         <v>32.799999999999997</v>
       </c>
@@ -10522,6 +11261,9 @@
       <c r="H134" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I134" t="s">
+        <v>379</v>
+      </c>
       <c r="J134">
         <v>32.799999999999997</v>
       </c>
@@ -10587,6 +11329,9 @@
       <c r="H135" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I135" t="s">
+        <v>544</v>
+      </c>
       <c r="J135">
         <v>32.799999999999997</v>
       </c>
@@ -10652,6 +11397,9 @@
       <c r="H136" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I136" t="s">
+        <v>545</v>
+      </c>
       <c r="J136">
         <v>32.799999999999997</v>
       </c>
@@ -10717,6 +11465,9 @@
       <c r="H137" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I137" t="s">
+        <v>546</v>
+      </c>
       <c r="J137">
         <v>32.799999999999997</v>
       </c>
@@ -10782,6 +11533,9 @@
       <c r="H138" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I138" t="s">
+        <v>547</v>
+      </c>
       <c r="J138">
         <v>32.799999999999997</v>
       </c>
@@ -10847,6 +11601,9 @@
       <c r="H139" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I139" t="s">
+        <v>548</v>
+      </c>
       <c r="J139">
         <v>32.799999999999997</v>
       </c>
@@ -10912,6 +11669,9 @@
       <c r="H140" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I140" t="s">
+        <v>549</v>
+      </c>
       <c r="J140">
         <v>32.799999999999997</v>
       </c>
@@ -10977,6 +11737,9 @@
       <c r="H141" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I141" t="s">
+        <v>532</v>
+      </c>
       <c r="J141">
         <v>32.799999999999997</v>
       </c>
@@ -11042,6 +11805,9 @@
       <c r="H142" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I142" t="s">
+        <v>533</v>
+      </c>
       <c r="J142">
         <v>32.799999999999997</v>
       </c>
@@ -11107,6 +11873,9 @@
       <c r="H143" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I143" t="s">
+        <v>534</v>
+      </c>
       <c r="J143">
         <v>32.799999999999997</v>
       </c>
@@ -11172,6 +11941,9 @@
       <c r="H144" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I144" t="s">
+        <v>404</v>
+      </c>
       <c r="J144">
         <v>32.799999999999997</v>
       </c>
@@ -11237,6 +12009,9 @@
       <c r="H145" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I145" t="s">
+        <v>535</v>
+      </c>
       <c r="J145">
         <v>32.799999999999997</v>
       </c>
@@ -11302,6 +12077,9 @@
       <c r="H146" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I146" t="s">
+        <v>536</v>
+      </c>
       <c r="J146">
         <v>32.799999999999997</v>
       </c>
@@ -11367,6 +12145,9 @@
       <c r="H147" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I147" t="s">
+        <v>537</v>
+      </c>
       <c r="J147">
         <v>32.799999999999997</v>
       </c>
@@ -11432,6 +12213,9 @@
       <c r="H148" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I148" t="s">
+        <v>538</v>
+      </c>
       <c r="J148">
         <v>32.799999999999997</v>
       </c>
@@ -11497,6 +12281,9 @@
       <c r="H149" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I149" t="s">
+        <v>539</v>
+      </c>
       <c r="J149">
         <v>32.799999999999997</v>
       </c>
@@ -11562,7 +12349,9 @@
       <c r="H150" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I150" s="1"/>
+      <c r="I150" t="s">
+        <v>540</v>
+      </c>
       <c r="J150">
         <v>32.799999999999997</v>
       </c>
@@ -11628,6 +12417,9 @@
       <c r="H151" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I151" t="s">
+        <v>25</v>
+      </c>
       <c r="J151">
         <v>32.799999999999997</v>
       </c>
@@ -11693,6 +12485,9 @@
       <c r="H152" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I152" t="s">
+        <v>541</v>
+      </c>
       <c r="J152">
         <v>32.799999999999997</v>
       </c>
@@ -11758,7 +12553,9 @@
       <c r="H153" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I153" s="1"/>
+      <c r="I153" t="s">
+        <v>418</v>
+      </c>
       <c r="J153">
         <v>32.799999999999997</v>
       </c>
@@ -11824,6 +12621,9 @@
       <c r="H154" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I154" t="s">
+        <v>535</v>
+      </c>
       <c r="J154">
         <v>32.799999999999997</v>
       </c>
@@ -11889,6 +12689,9 @@
       <c r="H155" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I155" t="s">
+        <v>542</v>
+      </c>
       <c r="J155">
         <v>32.799999999999997</v>
       </c>
@@ -11954,6 +12757,9 @@
       <c r="H156" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I156" t="s">
+        <v>543</v>
+      </c>
       <c r="J156">
         <v>32.799999999999997</v>
       </c>
@@ -12019,6 +12825,9 @@
       <c r="H157" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I157" t="s">
+        <v>379</v>
+      </c>
       <c r="J157">
         <v>32.799999999999997</v>
       </c>
@@ -12084,6 +12893,9 @@
       <c r="H158" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I158" t="s">
+        <v>544</v>
+      </c>
       <c r="J158">
         <v>32.799999999999997</v>
       </c>
@@ -12149,6 +12961,9 @@
       <c r="H159" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I159" t="s">
+        <v>545</v>
+      </c>
       <c r="J159">
         <v>32.799999999999997</v>
       </c>
@@ -12214,6 +13029,9 @@
       <c r="H160" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I160" t="s">
+        <v>546</v>
+      </c>
       <c r="J160">
         <v>32.799999999999997</v>
       </c>
@@ -12279,6 +13097,9 @@
       <c r="H161" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I161" t="s">
+        <v>547</v>
+      </c>
       <c r="J161">
         <v>32.799999999999997</v>
       </c>
@@ -12344,6 +13165,9 @@
       <c r="H162" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I162" t="s">
+        <v>548</v>
+      </c>
       <c r="J162">
         <v>32.799999999999997</v>
       </c>
@@ -12409,6 +13233,9 @@
       <c r="H163" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I163" t="s">
+        <v>549</v>
+      </c>
       <c r="J163">
         <v>32.799999999999997</v>
       </c>
@@ -12474,6 +13301,9 @@
       <c r="H164" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I164" t="s">
+        <v>532</v>
+      </c>
       <c r="J164">
         <v>32.799999999999997</v>
       </c>
@@ -12539,6 +13369,9 @@
       <c r="H165" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I165" t="s">
+        <v>533</v>
+      </c>
       <c r="J165">
         <v>32.799999999999997</v>
       </c>
@@ -12604,6 +13437,9 @@
       <c r="H166" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I166" t="s">
+        <v>534</v>
+      </c>
       <c r="J166">
         <v>32.799999999999997</v>
       </c>
@@ -12669,6 +13505,9 @@
       <c r="H167" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I167" t="s">
+        <v>404</v>
+      </c>
       <c r="J167">
         <v>32.799999999999997</v>
       </c>
@@ -12734,6 +13573,9 @@
       <c r="H168" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I168" t="s">
+        <v>535</v>
+      </c>
       <c r="J168">
         <v>32.799999999999997</v>
       </c>
@@ -12799,6 +13641,9 @@
       <c r="H169" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I169" t="s">
+        <v>536</v>
+      </c>
       <c r="J169">
         <v>32.799999999999997</v>
       </c>
@@ -12864,6 +13709,9 @@
       <c r="H170" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I170" t="s">
+        <v>537</v>
+      </c>
       <c r="J170">
         <v>32.799999999999997</v>
       </c>
@@ -12929,6 +13777,9 @@
       <c r="H171" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I171" t="s">
+        <v>538</v>
+      </c>
       <c r="J171">
         <v>32.799999999999997</v>
       </c>
@@ -12994,6 +13845,9 @@
       <c r="H172" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I172" t="s">
+        <v>539</v>
+      </c>
       <c r="J172">
         <v>32.799999999999997</v>
       </c>
@@ -13059,7 +13913,9 @@
       <c r="H173" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I173" s="1"/>
+      <c r="I173" t="s">
+        <v>540</v>
+      </c>
       <c r="J173">
         <v>32.799999999999997</v>
       </c>
@@ -13125,6 +13981,9 @@
       <c r="H174" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I174" t="s">
+        <v>25</v>
+      </c>
       <c r="J174">
         <v>32.799999999999997</v>
       </c>
@@ -13190,6 +14049,9 @@
       <c r="H175" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I175" t="s">
+        <v>541</v>
+      </c>
       <c r="J175">
         <v>32.799999999999997</v>
       </c>
@@ -13255,7 +14117,9 @@
       <c r="H176" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I176" s="1"/>
+      <c r="I176" t="s">
+        <v>418</v>
+      </c>
       <c r="J176">
         <v>32.799999999999997</v>
       </c>
@@ -13321,6 +14185,9 @@
       <c r="H177" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I177" t="s">
+        <v>535</v>
+      </c>
       <c r="J177">
         <v>32.799999999999997</v>
       </c>
@@ -13386,6 +14253,9 @@
       <c r="H178" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I178" t="s">
+        <v>542</v>
+      </c>
       <c r="J178">
         <v>32.799999999999997</v>
       </c>
@@ -13451,6 +14321,9 @@
       <c r="H179" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I179" t="s">
+        <v>543</v>
+      </c>
       <c r="J179">
         <v>32.799999999999997</v>
       </c>
@@ -13516,6 +14389,9 @@
       <c r="H180" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I180" t="s">
+        <v>379</v>
+      </c>
       <c r="J180">
         <v>32.799999999999997</v>
       </c>
@@ -13581,6 +14457,9 @@
       <c r="H181" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I181" t="s">
+        <v>544</v>
+      </c>
       <c r="J181">
         <v>32.799999999999997</v>
       </c>
@@ -13646,6 +14525,9 @@
       <c r="H182" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I182" t="s">
+        <v>545</v>
+      </c>
       <c r="J182">
         <v>32.799999999999997</v>
       </c>
@@ -13711,6 +14593,9 @@
       <c r="H183" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I183" t="s">
+        <v>546</v>
+      </c>
       <c r="J183">
         <v>32.799999999999997</v>
       </c>
@@ -13776,6 +14661,9 @@
       <c r="H184" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I184" t="s">
+        <v>547</v>
+      </c>
       <c r="J184">
         <v>32.799999999999997</v>
       </c>
@@ -13841,6 +14729,9 @@
       <c r="H185" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I185" t="s">
+        <v>548</v>
+      </c>
       <c r="J185">
         <v>32.799999999999997</v>
       </c>
@@ -13906,6 +14797,9 @@
       <c r="H186" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I186" t="s">
+        <v>549</v>
+      </c>
       <c r="J186">
         <v>32.799999999999997</v>
       </c>
@@ -13971,6 +14865,9 @@
       <c r="H187" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I187" t="s">
+        <v>532</v>
+      </c>
       <c r="J187">
         <v>32.799999999999997</v>
       </c>
@@ -14036,6 +14933,9 @@
       <c r="H188" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I188" t="s">
+        <v>533</v>
+      </c>
       <c r="J188">
         <v>32.799999999999997</v>
       </c>
@@ -14101,6 +15001,9 @@
       <c r="H189" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I189" t="s">
+        <v>534</v>
+      </c>
       <c r="J189">
         <v>32.799999999999997</v>
       </c>
@@ -14166,6 +15069,9 @@
       <c r="H190" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I190" t="s">
+        <v>404</v>
+      </c>
       <c r="J190">
         <v>32.799999999999997</v>
       </c>
@@ -14231,6 +15137,9 @@
       <c r="H191" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I191" t="s">
+        <v>535</v>
+      </c>
       <c r="J191">
         <v>32.799999999999997</v>
       </c>
@@ -14296,6 +15205,9 @@
       <c r="H192" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I192" t="s">
+        <v>536</v>
+      </c>
       <c r="J192">
         <v>32.799999999999997</v>
       </c>
@@ -14361,6 +15273,9 @@
       <c r="H193" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I193" t="s">
+        <v>537</v>
+      </c>
       <c r="J193">
         <v>32.799999999999997</v>
       </c>
@@ -14426,6 +15341,9 @@
       <c r="H194" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I194" t="s">
+        <v>538</v>
+      </c>
       <c r="J194">
         <v>32.799999999999997</v>
       </c>
@@ -14491,6 +15409,9 @@
       <c r="H195" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I195" t="s">
+        <v>539</v>
+      </c>
       <c r="J195">
         <v>32.799999999999997</v>
       </c>
@@ -14556,7 +15477,9 @@
       <c r="H196" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I196" s="1"/>
+      <c r="I196" t="s">
+        <v>540</v>
+      </c>
       <c r="J196">
         <v>32.799999999999997</v>
       </c>
@@ -14622,6 +15545,9 @@
       <c r="H197" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="I197" t="s">
+        <v>25</v>
+      </c>
       <c r="J197">
         <v>32.799999999999997</v>
       </c>
@@ -14687,6 +15613,9 @@
       <c r="H198" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I198" t="s">
+        <v>541</v>
+      </c>
       <c r="J198">
         <v>32.799999999999997</v>
       </c>
@@ -14752,7 +15681,9 @@
       <c r="H199" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I199" s="1"/>
+      <c r="I199" t="s">
+        <v>418</v>
+      </c>
       <c r="J199">
         <v>32.799999999999997</v>
       </c>
@@ -14818,6 +15749,9 @@
       <c r="H200" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I200" t="s">
+        <v>535</v>
+      </c>
       <c r="J200">
         <v>32.799999999999997</v>
       </c>
@@ -14883,6 +15817,9 @@
       <c r="H201" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I201" t="s">
+        <v>542</v>
+      </c>
       <c r="J201">
         <v>32.799999999999997</v>
       </c>
@@ -14948,6 +15885,9 @@
       <c r="H202" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I202" t="s">
+        <v>543</v>
+      </c>
       <c r="J202">
         <v>32.799999999999997</v>
       </c>
@@ -15013,6 +15953,9 @@
       <c r="H203" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I203" t="s">
+        <v>379</v>
+      </c>
       <c r="J203">
         <v>32.799999999999997</v>
       </c>
@@ -15078,6 +16021,9 @@
       <c r="H204" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I204" t="s">
+        <v>544</v>
+      </c>
       <c r="J204">
         <v>32.799999999999997</v>
       </c>
@@ -15143,6 +16089,9 @@
       <c r="H205" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I205" t="s">
+        <v>545</v>
+      </c>
       <c r="J205">
         <v>32.799999999999997</v>
       </c>
@@ -15208,6 +16157,9 @@
       <c r="H206" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I206" t="s">
+        <v>546</v>
+      </c>
       <c r="J206">
         <v>32.799999999999997</v>
       </c>
@@ -15273,6 +16225,9 @@
       <c r="H207" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I207" t="s">
+        <v>547</v>
+      </c>
       <c r="J207">
         <v>32.799999999999997</v>
       </c>
@@ -15338,6 +16293,9 @@
       <c r="H208" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I208" t="s">
+        <v>548</v>
+      </c>
       <c r="J208">
         <v>32.799999999999997</v>
       </c>
@@ -15403,6 +16361,9 @@
       <c r="H209" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I209" t="s">
+        <v>549</v>
+      </c>
       <c r="J209">
         <v>32.799999999999997</v>
       </c>
@@ -15468,6 +16429,9 @@
       <c r="H210" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I210" t="s">
+        <v>532</v>
+      </c>
       <c r="J210">
         <v>32.799999999999997</v>
       </c>
@@ -15533,6 +16497,9 @@
       <c r="H211" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I211" t="s">
+        <v>533</v>
+      </c>
       <c r="J211">
         <v>32.799999999999997</v>
       </c>
@@ -15598,6 +16565,9 @@
       <c r="H212" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I212" t="s">
+        <v>550</v>
+      </c>
       <c r="J212">
         <v>32.799999999999997</v>
       </c>
@@ -15663,6 +16633,9 @@
       <c r="H213" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I213" t="s">
+        <v>551</v>
+      </c>
       <c r="J213">
         <v>32.799999999999997</v>
       </c>
@@ -15728,6 +16701,9 @@
       <c r="H214" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I214" t="s">
+        <v>552</v>
+      </c>
       <c r="J214">
         <v>32.799999999999997</v>
       </c>
@@ -15793,6 +16769,9 @@
       <c r="H215" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I215" t="s">
+        <v>553</v>
+      </c>
       <c r="J215">
         <v>32.799999999999997</v>
       </c>
@@ -15858,6 +16837,9 @@
       <c r="H216" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I216" t="s">
+        <v>554</v>
+      </c>
       <c r="J216">
         <v>32.799999999999997</v>
       </c>
@@ -15923,6 +16905,9 @@
       <c r="H217" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I217" t="s">
+        <v>555</v>
+      </c>
       <c r="J217">
         <v>32.799999999999997</v>
       </c>
@@ -15988,6 +16973,9 @@
       <c r="H218" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I218" t="s">
+        <v>556</v>
+      </c>
       <c r="J218">
         <v>32.799999999999997</v>
       </c>
@@ -16053,7 +17041,9 @@
       <c r="H219" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I219" s="1"/>
+      <c r="I219" t="s">
+        <v>288</v>
+      </c>
       <c r="J219">
         <v>32.799999999999997</v>
       </c>
@@ -16119,6 +17109,9 @@
       <c r="H220" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I220" t="s">
+        <v>557</v>
+      </c>
       <c r="J220">
         <v>32.799999999999997</v>
       </c>
@@ -16184,6 +17177,9 @@
       <c r="H221" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I221" t="s">
+        <v>558</v>
+      </c>
       <c r="J221">
         <v>32.799999999999997</v>
       </c>
@@ -16249,7 +17245,9 @@
       <c r="H222" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I222" s="1"/>
+      <c r="I222" t="s">
+        <v>559</v>
+      </c>
       <c r="J222">
         <v>32.799999999999997</v>
       </c>
@@ -16315,6 +17313,9 @@
       <c r="H223" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I223" t="s">
+        <v>560</v>
+      </c>
       <c r="J223">
         <v>32.799999999999997</v>
       </c>
@@ -16380,6 +17381,9 @@
       <c r="H224" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I224" t="s">
+        <v>561</v>
+      </c>
       <c r="J224">
         <v>32.799999999999997</v>
       </c>
@@ -16445,6 +17449,9 @@
       <c r="H225" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="I225" t="s">
+        <v>554</v>
+      </c>
       <c r="J225">
         <v>32.799999999999997</v>
       </c>
@@ -16510,6 +17517,9 @@
       <c r="H226" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I226" t="s">
+        <v>562</v>
+      </c>
       <c r="J226">
         <v>32.799999999999997</v>
       </c>
@@ -16575,6 +17585,9 @@
       <c r="H227" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I227" t="s">
+        <v>563</v>
+      </c>
       <c r="J227">
         <v>32.799999999999997</v>
       </c>
@@ -16640,6 +17653,9 @@
       <c r="H228" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I228" t="s">
+        <v>564</v>
+      </c>
       <c r="J228">
         <v>32.799999999999997</v>
       </c>
@@ -16705,6 +17721,9 @@
       <c r="H229" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I229" t="s">
+        <v>565</v>
+      </c>
       <c r="J229">
         <v>32.799999999999997</v>
       </c>
@@ -16770,6 +17789,9 @@
       <c r="H230" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I230" t="s">
+        <v>566</v>
+      </c>
       <c r="J230">
         <v>32.799999999999997</v>
       </c>
@@ -16835,6 +17857,9 @@
       <c r="H231" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I231" t="s">
+        <v>567</v>
+      </c>
       <c r="J231">
         <v>32.799999999999997</v>
       </c>
@@ -16900,6 +17925,9 @@
       <c r="H232" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I232" t="s">
+        <v>568</v>
+      </c>
       <c r="J232">
         <v>32.799999999999997</v>
       </c>
@@ -16965,6 +17993,9 @@
       <c r="H233" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I233" t="s">
+        <v>569</v>
+      </c>
       <c r="J233">
         <v>32.799999999999997</v>
       </c>
@@ -17030,6 +18061,9 @@
       <c r="H234" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I234" t="s">
+        <v>570</v>
+      </c>
       <c r="J234">
         <v>32.799999999999997</v>
       </c>
@@ -17095,6 +18129,9 @@
       <c r="H235" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I235" t="s">
+        <v>550</v>
+      </c>
       <c r="J235">
         <v>32.799999999999997</v>
       </c>
@@ -17160,6 +18197,9 @@
       <c r="H236" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I236" t="s">
+        <v>551</v>
+      </c>
       <c r="J236">
         <v>32.799999999999997</v>
       </c>
@@ -17225,6 +18265,9 @@
       <c r="H237" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I237" t="s">
+        <v>552</v>
+      </c>
       <c r="J237">
         <v>32.799999999999997</v>
       </c>
@@ -17290,6 +18333,9 @@
       <c r="H238" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I238" t="s">
+        <v>553</v>
+      </c>
       <c r="J238">
         <v>32.799999999999997</v>
       </c>
@@ -17355,6 +18401,9 @@
       <c r="H239" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I239" t="s">
+        <v>554</v>
+      </c>
       <c r="J239">
         <v>32.799999999999997</v>
       </c>
@@ -17420,6 +18469,9 @@
       <c r="H240" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I240" t="s">
+        <v>555</v>
+      </c>
       <c r="J240">
         <v>32.799999999999997</v>
       </c>
@@ -17485,6 +18537,9 @@
       <c r="H241" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I241" t="s">
+        <v>556</v>
+      </c>
       <c r="J241">
         <v>32.799999999999997</v>
       </c>
@@ -17550,7 +18605,9 @@
       <c r="H242" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I242" s="1"/>
+      <c r="I242" t="s">
+        <v>288</v>
+      </c>
       <c r="J242">
         <v>32.799999999999997</v>
       </c>
@@ -17616,6 +18673,9 @@
       <c r="H243" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I243" t="s">
+        <v>557</v>
+      </c>
       <c r="J243">
         <v>32.799999999999997</v>
       </c>
@@ -17681,6 +18741,9 @@
       <c r="H244" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I244" t="s">
+        <v>558</v>
+      </c>
       <c r="J244">
         <v>32.799999999999997</v>
       </c>
@@ -17746,7 +18809,9 @@
       <c r="H245" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I245" s="1"/>
+      <c r="I245" t="s">
+        <v>559</v>
+      </c>
       <c r="J245">
         <v>32.799999999999997</v>
       </c>
@@ -17812,6 +18877,9 @@
       <c r="H246" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I246" t="s">
+        <v>560</v>
+      </c>
       <c r="J246">
         <v>32.799999999999997</v>
       </c>
@@ -17877,6 +18945,9 @@
       <c r="H247" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I247" t="s">
+        <v>561</v>
+      </c>
       <c r="J247">
         <v>32.799999999999997</v>
       </c>
@@ -17942,6 +19013,9 @@
       <c r="H248" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I248" t="s">
+        <v>554</v>
+      </c>
       <c r="J248">
         <v>32.799999999999997</v>
       </c>
@@ -18007,6 +19081,9 @@
       <c r="H249" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I249" t="s">
+        <v>562</v>
+      </c>
       <c r="J249">
         <v>32.799999999999997</v>
       </c>
@@ -18072,6 +19149,9 @@
       <c r="H250" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I250" t="s">
+        <v>563</v>
+      </c>
       <c r="J250">
         <v>32.799999999999997</v>
       </c>
@@ -18137,6 +19217,9 @@
       <c r="H251" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I251" t="s">
+        <v>564</v>
+      </c>
       <c r="J251">
         <v>32.799999999999997</v>
       </c>
@@ -18202,6 +19285,9 @@
       <c r="H252" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="I252" t="s">
+        <v>565</v>
+      </c>
       <c r="J252">
         <v>32.799999999999997</v>
       </c>
@@ -18267,6 +19353,9 @@
       <c r="H253" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I253" t="s">
+        <v>566</v>
+      </c>
       <c r="J253">
         <v>32.799999999999997</v>
       </c>
@@ -18332,6 +19421,9 @@
       <c r="H254" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I254" t="s">
+        <v>567</v>
+      </c>
       <c r="J254">
         <v>32.799999999999997</v>
       </c>
@@ -18397,6 +19489,9 @@
       <c r="H255" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I255" t="s">
+        <v>568</v>
+      </c>
       <c r="J255">
         <v>32.799999999999997</v>
       </c>
@@ -18462,6 +19557,9 @@
       <c r="H256" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I256" t="s">
+        <v>569</v>
+      </c>
       <c r="J256">
         <v>32.799999999999997</v>
       </c>
@@ -18527,6 +19625,9 @@
       <c r="H257" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I257" t="s">
+        <v>570</v>
+      </c>
       <c r="J257">
         <v>32.799999999999997</v>
       </c>
@@ -18592,6 +19693,9 @@
       <c r="H258" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I258" t="s">
+        <v>550</v>
+      </c>
       <c r="J258">
         <v>32.799999999999997</v>
       </c>
@@ -18657,6 +19761,9 @@
       <c r="H259" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I259" t="s">
+        <v>551</v>
+      </c>
       <c r="J259">
         <v>32.799999999999997</v>
       </c>
@@ -18722,6 +19829,9 @@
       <c r="H260" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I260" t="s">
+        <v>552</v>
+      </c>
       <c r="J260">
         <v>32.799999999999997</v>
       </c>
@@ -18787,6 +19897,9 @@
       <c r="H261" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I261" t="s">
+        <v>553</v>
+      </c>
       <c r="J261">
         <v>32.799999999999997</v>
       </c>
@@ -18852,6 +19965,9 @@
       <c r="H262" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I262" t="s">
+        <v>554</v>
+      </c>
       <c r="J262">
         <v>32.799999999999997</v>
       </c>
@@ -18917,6 +20033,9 @@
       <c r="H263" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I263" t="s">
+        <v>555</v>
+      </c>
       <c r="J263">
         <v>32.799999999999997</v>
       </c>
@@ -18982,6 +20101,9 @@
       <c r="H264" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I264" t="s">
+        <v>556</v>
+      </c>
       <c r="J264">
         <v>32.799999999999997</v>
       </c>
@@ -19047,7 +20169,9 @@
       <c r="H265" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I265" s="1"/>
+      <c r="I265" t="s">
+        <v>288</v>
+      </c>
       <c r="J265">
         <v>32.799999999999997</v>
       </c>
@@ -19113,6 +20237,9 @@
       <c r="H266" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I266" t="s">
+        <v>557</v>
+      </c>
       <c r="J266">
         <v>32.799999999999997</v>
       </c>
@@ -19178,6 +20305,9 @@
       <c r="H267" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I267" t="s">
+        <v>558</v>
+      </c>
       <c r="J267">
         <v>32.799999999999997</v>
       </c>
@@ -19243,6 +20373,9 @@
       <c r="H268" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I268" t="s">
+        <v>559</v>
+      </c>
       <c r="J268">
         <v>32.799999999999997</v>
       </c>
@@ -19308,6 +20441,9 @@
       <c r="H269" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I269" t="s">
+        <v>560</v>
+      </c>
       <c r="J269">
         <v>32.799999999999997</v>
       </c>
@@ -19373,6 +20509,9 @@
       <c r="H270" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I270" t="s">
+        <v>561</v>
+      </c>
       <c r="J270">
         <v>32.799999999999997</v>
       </c>
@@ -19438,6 +20577,9 @@
       <c r="H271" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I271" t="s">
+        <v>554</v>
+      </c>
       <c r="J271">
         <v>32.799999999999997</v>
       </c>
@@ -19503,6 +20645,9 @@
       <c r="H272" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I272" t="s">
+        <v>562</v>
+      </c>
       <c r="J272">
         <v>32.799999999999997</v>
       </c>
@@ -19568,6 +20713,9 @@
       <c r="H273" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I273" t="s">
+        <v>563</v>
+      </c>
       <c r="J273">
         <v>32.799999999999997</v>
       </c>
@@ -19633,6 +20781,9 @@
       <c r="H274" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I274" t="s">
+        <v>564</v>
+      </c>
       <c r="J274">
         <v>32.799999999999997</v>
       </c>
@@ -19698,6 +20849,9 @@
       <c r="H275" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="I275" t="s">
+        <v>565</v>
+      </c>
       <c r="J275">
         <v>32.799999999999997</v>
       </c>
@@ -19763,6 +20917,9 @@
       <c r="H276" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I276" t="s">
+        <v>566</v>
+      </c>
       <c r="J276">
         <v>32.799999999999997</v>
       </c>
@@ -19828,6 +20985,9 @@
       <c r="H277" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I277" t="s">
+        <v>567</v>
+      </c>
       <c r="J277">
         <v>32.799999999999997</v>
       </c>
@@ -19893,6 +21053,9 @@
       <c r="H278" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I278" t="s">
+        <v>568</v>
+      </c>
       <c r="J278">
         <v>32.799999999999997</v>
       </c>
@@ -19958,6 +21121,9 @@
       <c r="H279" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I279" t="s">
+        <v>569</v>
+      </c>
       <c r="J279">
         <v>32.799999999999997</v>
       </c>
@@ -20023,6 +21189,9 @@
       <c r="H280" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I280" t="s">
+        <v>570</v>
+      </c>
       <c r="J280">
         <v>32.799999999999997</v>
       </c>
@@ -20088,6 +21257,9 @@
       <c r="H281" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I281" t="s">
+        <v>550</v>
+      </c>
       <c r="J281">
         <v>32.799999999999997</v>
       </c>
@@ -20153,6 +21325,9 @@
       <c r="H282" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I282" t="s">
+        <v>551</v>
+      </c>
       <c r="J282">
         <v>32.799999999999997</v>
       </c>
@@ -20218,6 +21393,9 @@
       <c r="H283" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I283" t="s">
+        <v>552</v>
+      </c>
       <c r="J283">
         <v>32.799999999999997</v>
       </c>
@@ -20283,6 +21461,9 @@
       <c r="H284" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I284" t="s">
+        <v>553</v>
+      </c>
       <c r="J284">
         <v>32.799999999999997</v>
       </c>
@@ -20348,6 +21529,9 @@
       <c r="H285" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I285" t="s">
+        <v>554</v>
+      </c>
       <c r="J285">
         <v>32.799999999999997</v>
       </c>
@@ -20413,6 +21597,9 @@
       <c r="H286" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I286" t="s">
+        <v>555</v>
+      </c>
       <c r="J286">
         <v>32.799999999999997</v>
       </c>
@@ -20478,6 +21665,9 @@
       <c r="H287" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I287" t="s">
+        <v>556</v>
+      </c>
       <c r="J287">
         <v>32.799999999999997</v>
       </c>
@@ -20543,7 +21733,9 @@
       <c r="H288" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I288" s="1"/>
+      <c r="I288" t="s">
+        <v>288</v>
+      </c>
       <c r="J288">
         <v>32.799999999999997</v>
       </c>
@@ -20609,6 +21801,9 @@
       <c r="H289" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I289" t="s">
+        <v>557</v>
+      </c>
       <c r="J289">
         <v>32.799999999999997</v>
       </c>
@@ -20674,6 +21869,9 @@
       <c r="H290" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I290" t="s">
+        <v>558</v>
+      </c>
       <c r="J290">
         <v>32.799999999999997</v>
       </c>
@@ -20739,6 +21937,9 @@
       <c r="H291" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I291" t="s">
+        <v>559</v>
+      </c>
       <c r="J291">
         <v>32.799999999999997</v>
       </c>
@@ -20804,6 +22005,9 @@
       <c r="H292" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I292" t="s">
+        <v>560</v>
+      </c>
       <c r="J292">
         <v>32.799999999999997</v>
       </c>
@@ -20869,6 +22073,9 @@
       <c r="H293" s="8" t="s">
         <v>308</v>
       </c>
+      <c r="I293" t="s">
+        <v>561</v>
+      </c>
       <c r="J293">
         <v>32.799999999999997</v>
       </c>
@@ -20934,6 +22141,9 @@
       <c r="H294" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="I294" t="s">
+        <v>554</v>
+      </c>
       <c r="J294">
         <v>32.799999999999997</v>
       </c>
@@ -20999,6 +22209,9 @@
       <c r="H295" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I295" t="s">
+        <v>562</v>
+      </c>
       <c r="J295">
         <v>32.799999999999997</v>
       </c>
@@ -21064,6 +22277,9 @@
       <c r="H296" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I296" t="s">
+        <v>563</v>
+      </c>
       <c r="J296">
         <v>32.799999999999997</v>
       </c>
@@ -21129,6 +22345,9 @@
       <c r="H297" s="8" t="s">
         <v>306</v>
       </c>
+      <c r="I297" t="s">
+        <v>564</v>
+      </c>
       <c r="J297">
         <v>32.799999999999997</v>
       </c>
@@ -21194,6 +22413,9 @@
       <c r="H298" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="I298" t="s">
+        <v>565</v>
+      </c>
       <c r="J298">
         <v>32.799999999999997</v>
       </c>
@@ -21258,6 +22480,9 @@
       </c>
       <c r="H299" s="8" t="s">
         <v>306</v>
+      </c>
+      <c r="I299" t="s">
+        <v>566</v>
       </c>
       <c r="J299">
         <v>32.799999999999997</v>
